--- a/biology/Zoologie/Acanthoscurria/Acanthoscurria.xlsx
+++ b/biology/Zoologie/Acanthoscurria/Acanthoscurria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthoscurria est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthoscurria est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et aux Petites Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et aux Petites Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 26/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 26/02/2024) :
 Acanthoscurria belterrensis Paula, Gabriel, Indicatti, Brescovit &amp; Lucas, 2014
 Acanthoscurria chacoana Brèthes, 1909
 Acanthoscurria cordubensis Thorell, 1894
@@ -590,12 +606,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par l'arachnologiste autrichien Anton Ausserer en 1871 dans les Theraphosidae. Son espèce type est Acanthoscurria geniculata. Il est placé dans la sous-famille des Theraphosinae[2]. Il est révisé par Gabriel en 2020[3].
-Acanthopalpus[4] a été placé en synonymie par Simon en 1892[5].
-Callyntropus[6] a été placé en synonymie par Simon en 1903[7].
-Trasyphoberus a été placé en synonymie avec Acanthoscurria par Raven en 1985[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par l'arachnologiste autrichien Anton Ausserer en 1871 dans les Theraphosidae. Son espèce type est Acanthoscurria geniculata. Il est placé dans la sous-famille des Theraphosinae. Il est révisé par Gabriel en 2020.
+Acanthopalpus a été placé en synonymie par Simon en 1892.
+Callyntropus a été placé en synonymie par Simon en 1903.
+Trasyphoberus a été placé en synonymie avec Acanthoscurria par Raven en 1985.
 </t>
         </is>
       </c>
